--- a/SDET36L1-SELENIUMFREAMEWORK/src/test/resources/Contacts.xlsx
+++ b/SDET36L1-SELENIUMFREAMEWORK/src/test/resources/Contacts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>TC NAME</t>
   </si>
